--- a/Data/Kisaveikkaus_2023_Lassi.xlsx
+++ b/Data/Kisaveikkaus_2023_Lassi.xlsx
@@ -109,25 +109,28 @@
     <t xml:space="preserve">Irlanti</t>
   </si>
   <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Morgan </t>
+  </si>
+  <si>
     <t xml:space="preserve">Yhdysvallat</t>
   </si>
   <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex Morgan </t>
-  </si>
-  <si>
     <t xml:space="preserve">Filippiinit</t>
   </si>
   <si>
     <t xml:space="preserve">Sveitsi</t>
   </si>
   <si>
-    <t xml:space="preserve">Alexandra Popp</t>
+    <t xml:space="preserve">Alex Popp</t>
   </si>
   <si>
     <t xml:space="preserve">Saksa</t>
@@ -146,9 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam</t>
@@ -624,10 +624,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.33"/>
@@ -832,7 +832,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="20" t="s">
         <v>18</v>
@@ -844,13 +844,13 @@
         <v>45128</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="19" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>4</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,13 +877,13 @@
         <v>45128</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="19" t="n">
         <v>4</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="20"/>
     </row>
@@ -908,7 +908,7 @@
         <v>45129</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>15</v>
@@ -929,7 +929,7 @@
         <v>37</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" s="15" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,7 +938,7 @@
         <v>45129</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>15</v>
@@ -1106,7 +1106,7 @@
         <v>45131</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>15</v>
@@ -1130,7 +1130,7 @@
         <v>45131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>15</v>
@@ -1184,7 +1184,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F22" s="19" t="n">
         <v>4</v>
@@ -1202,7 +1202,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>15</v>
@@ -1232,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>2</v>
@@ -1250,13 +1250,13 @@
         <v>45133</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" s="19" t="n">
         <v>3</v>
@@ -1298,7 +1298,7 @@
         <v>45134</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>15</v>
@@ -1472,7 +1472,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F34" s="19" t="n">
         <v>2</v>
@@ -1538,7 +1538,7 @@
         <v>45137</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>15</v>
@@ -1568,7 +1568,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F38" s="19" t="n">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>45137</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>15</v>
@@ -1616,7 +1616,7 @@
         <v>15</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F40" s="19" t="n">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>45138</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F41" s="19" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>15</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F45" s="19" t="n">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F51" s="19" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>15</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F53" s="19" t="n">
         <v>1</v>
@@ -2255,7 +2255,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2278,7 +2278,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
